--- a/ドキュメント/Next.js React 作業ログ.xlsx
+++ b/ドキュメント/Next.js React 作業ログ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12600" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Next.js×React チュートリアル 作業ログ" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="209">
   <si>
     <t>進捗</t>
   </si>
@@ -403,6 +403,273 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">1 Next.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チュートリアル
+　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>レッスン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>プリレンダリングとデータフェッチング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>" - "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getStaticProps を実装する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">まで進捗した。
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Next.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チュートリアル
+　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>レッスン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>プリレンダリングとデータフェッチング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>" - "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>うまくいかない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">まで進捗した。
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Next.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チュートリアル
+"レッスン5. 動的ルーティング" - "投稿ページに title を追加する" まで進捗した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">まで進捗した。
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Next.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チュートリアル
+"レッスン5. 動的ルーティング" - "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">まで進捗した。
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Next.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">チュートリアル
+"レッスン8. TypeScript" - "アプリを書き換える"（最後） まで進捗した。
+</t>
+    </r>
+  </si>
+  <si>
     <t>完了フラグ</t>
   </si>
   <si>
@@ -920,7 +1187,18 @@
     </r>
   </si>
   <si>
-    <t>レッスン8. TypeScript</t>
+    <r>
+      <t>レッスン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8. TypeScript</t>
+    </r>
   </si>
   <si>
     <t>tsconfig.json を作成する</t>
@@ -938,7 +1216,45 @@
     <t>カスタムの App</t>
   </si>
   <si>
-    <t>アプリを書き換える</t>
+    <r>
+      <t>アプリを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>換</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>える</t>
+    </r>
   </si>
   <si>
     <t>合計</t>
@@ -2331,7 +2647,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2623,6 +2939,21 @@
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3454,8 +3785,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -3573,40 +3904,80 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+    <row r="7" ht="50.25" spans="1:5">
+      <c r="A7" s="40">
+        <v>44104</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" ht="12.75" spans="1:5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="D7" s="43">
+        <v>1</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8" ht="50.25" spans="1:5">
+      <c r="A8" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" ht="12.75" spans="1:5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="D8" s="43">
+        <v>1</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" ht="49.5" spans="1:5">
+      <c r="A9" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" ht="12.75" spans="1:5">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="D9" s="43">
+        <v>1</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" spans="1:5">
+      <c r="A10" s="40">
+        <v>44106</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11" ht="12.75" spans="1:5">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="D10" s="43">
+        <v>1</v>
+      </c>
+      <c r="E10" s="43">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" ht="48.75" spans="1:5">
+      <c r="A11" s="40">
+        <v>44109</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="43">
+        <v>1</v>
+      </c>
+      <c r="E11" s="43">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="12.75" spans="1:5">
       <c r="A12" s="34"/>
@@ -10566,7 +10937,7 @@
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -10578,22 +10949,22 @@
     <row r="1" ht="12.75" spans="1:5">
       <c r="A1" s="23"/>
       <c r="E1" s="23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:1">
       <c r="A2" s="23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="2:2">
       <c r="B3" s="23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="3:5">
       <c r="C4" s="23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
@@ -10604,7 +10975,7 @@
     </row>
     <row r="5" ht="12.75" spans="3:5">
       <c r="C5" s="23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="23">
         <v>1</v>
@@ -10615,7 +10986,7 @@
     </row>
     <row r="6" ht="12.75" spans="3:5">
       <c r="C6" s="23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" s="23">
         <v>1</v>
@@ -10626,7 +10997,7 @@
     </row>
     <row r="7" ht="12.75" spans="3:5">
       <c r="C7" s="23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="23">
         <v>1</v>
@@ -10637,7 +11008,7 @@
     </row>
     <row r="8" ht="12.75" spans="3:5">
       <c r="C8" s="23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="23">
         <v>1</v>
@@ -10648,7 +11019,7 @@
     </row>
     <row r="9" ht="12.75" spans="3:5">
       <c r="C9" s="23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" s="23">
         <v>1</v>
@@ -10659,7 +11030,7 @@
     </row>
     <row r="10" ht="12.75" spans="3:5">
       <c r="C10" s="23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" s="23">
         <v>1</v>
@@ -10670,13 +11041,13 @@
     </row>
     <row r="11" ht="12.75" spans="2:5">
       <c r="B11" s="23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11" s="25"/>
     </row>
     <row r="12" ht="12.75" spans="3:5">
       <c r="C12" s="23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -10687,7 +11058,7 @@
     </row>
     <row r="13" ht="12.75" spans="3:5">
       <c r="C13" s="23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" s="23">
         <v>1</v>
@@ -10698,7 +11069,7 @@
     </row>
     <row r="14" ht="12.75" spans="3:5">
       <c r="C14" s="23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14" s="23">
         <v>1</v>
@@ -10709,7 +11080,7 @@
     </row>
     <row r="15" ht="12.75" spans="3:5">
       <c r="C15" s="23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
@@ -10720,7 +11091,7 @@
     </row>
     <row r="16" ht="12.75" spans="3:5">
       <c r="C16" s="23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
@@ -10731,7 +11102,7 @@
     </row>
     <row r="17" ht="12.75" spans="3:5">
       <c r="C17" s="23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
@@ -10742,7 +11113,7 @@
     </row>
     <row r="18" ht="12.75" spans="3:5">
       <c r="C18" s="23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
@@ -10753,7 +11124,7 @@
     </row>
     <row r="19" ht="12.75" spans="3:5">
       <c r="C19" s="23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
@@ -10764,7 +11135,7 @@
     </row>
     <row r="20" ht="12.75" spans="3:5">
       <c r="C20" s="23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -10775,12 +11146,12 @@
     </row>
     <row r="21" ht="12.75" spans="2:2">
       <c r="B21" s="23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="12.75" spans="3:5">
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
@@ -10791,7 +11162,7 @@
     </row>
     <row r="23" ht="12.75" spans="3:5">
       <c r="C23" s="23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
@@ -10802,7 +11173,7 @@
     </row>
     <row r="24" ht="12.75" spans="3:5">
       <c r="C24" s="23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -10813,7 +11184,7 @@
     </row>
     <row r="25" ht="12.75" spans="3:5">
       <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
@@ -10824,7 +11195,7 @@
     </row>
     <row r="26" ht="12.75" spans="3:5">
       <c r="C26" s="23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D26" s="23">
         <v>1</v>
@@ -10835,7 +11206,7 @@
     </row>
     <row r="27" ht="12.75" spans="3:5">
       <c r="C27" s="23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D27" s="23">
         <v>1</v>
@@ -10846,7 +11217,7 @@
     </row>
     <row r="28" ht="12.75" spans="3:5">
       <c r="C28" s="23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D28" s="23">
         <v>1</v>
@@ -10857,7 +11228,7 @@
     </row>
     <row r="29" ht="12.75" spans="3:5">
       <c r="C29" s="23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D29" s="23">
         <v>1</v>
@@ -10868,7 +11239,7 @@
     </row>
     <row r="30" ht="12.75" spans="3:5">
       <c r="C30" s="23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
@@ -10879,7 +11250,7 @@
     </row>
     <row r="31" ht="12.75" spans="3:5">
       <c r="C31" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D31" s="23">
         <v>1</v>
@@ -10890,7 +11261,7 @@
     </row>
     <row r="32" ht="12.75" spans="3:5">
       <c r="C32" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D32" s="23">
         <v>1</v>
@@ -10901,7 +11272,7 @@
     </row>
     <row r="33" ht="12.75" spans="3:5">
       <c r="C33" s="23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D33" s="23">
         <v>1</v>
@@ -10912,7 +11283,7 @@
     </row>
     <row r="34" ht="12.75" spans="3:5">
       <c r="C34" s="23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D34" s="23">
         <v>1</v>
@@ -10923,7 +11294,7 @@
     </row>
     <row r="35" ht="12.75" spans="3:5">
       <c r="C35" s="23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D35" s="23">
         <v>1</v>
@@ -10934,7 +11305,7 @@
     </row>
     <row r="36" ht="12.75" spans="3:5">
       <c r="C36" s="23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D36" s="23">
         <v>1</v>
@@ -10945,7 +11316,7 @@
     </row>
     <row r="37" ht="12.75" spans="3:5">
       <c r="C37" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D37" s="23">
         <v>1</v>
@@ -10956,7 +11327,7 @@
     </row>
     <row r="38" ht="12.75" spans="3:5">
       <c r="C38" s="23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D38" s="23">
         <v>1</v>
@@ -10967,7 +11338,7 @@
     </row>
     <row r="39" ht="12.75" spans="3:5">
       <c r="C39" s="23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D39" s="23">
         <v>1</v>
@@ -10978,7 +11349,7 @@
     </row>
     <row r="40" ht="12.75" spans="3:5">
       <c r="C40" s="23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D40" s="23">
         <v>1</v>
@@ -10989,7 +11360,7 @@
     </row>
     <row r="41" ht="12.75" spans="3:5">
       <c r="C41" s="23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D41" s="23">
         <v>1</v>
@@ -11000,7 +11371,7 @@
     </row>
     <row r="42" ht="12.75" spans="3:5">
       <c r="C42" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D42" s="23">
         <v>1</v>
@@ -11011,7 +11382,7 @@
     </row>
     <row r="43" ht="12.75" spans="3:5">
       <c r="C43" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D43" s="23">
         <v>1</v>
@@ -11022,7 +11393,7 @@
     </row>
     <row r="44" ht="12.75" spans="3:5">
       <c r="C44" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D44" s="23">
         <v>1</v>
@@ -11033,7 +11404,7 @@
     </row>
     <row r="45" ht="12.75" spans="3:5">
       <c r="C45" s="23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D45" s="23">
         <v>1</v>
@@ -11044,7 +11415,7 @@
     </row>
     <row r="46" ht="12.75" spans="3:5">
       <c r="C46" s="23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D46" s="23">
         <v>1</v>
@@ -11055,12 +11426,12 @@
     </row>
     <row r="47" ht="12.75" spans="2:2">
       <c r="B47" s="23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" ht="12.75" spans="3:5">
       <c r="C48" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48" s="23">
         <v>1</v>
@@ -11071,7 +11442,7 @@
     </row>
     <row r="49" ht="12.75" spans="3:5">
       <c r="C49" s="23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D49" s="23">
         <v>1</v>
@@ -11082,7 +11453,7 @@
     </row>
     <row r="50" ht="12.75" spans="3:5">
       <c r="C50" s="23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D50" s="23">
         <v>1</v>
@@ -11093,7 +11464,7 @@
     </row>
     <row r="51" ht="12.75" spans="3:5">
       <c r="C51" s="23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D51" s="23">
         <v>1</v>
@@ -11104,7 +11475,7 @@
     </row>
     <row r="52" ht="12.75" spans="3:5">
       <c r="C52" s="23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D52" s="23">
         <v>1</v>
@@ -11115,7 +11486,7 @@
     </row>
     <row r="53" ht="12.75" spans="3:5">
       <c r="C53" s="23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D53" s="23">
         <v>1</v>
@@ -11126,7 +11497,7 @@
     </row>
     <row r="54" ht="12.75" spans="3:5">
       <c r="C54" s="23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D54" s="23">
         <v>1</v>
@@ -11137,7 +11508,7 @@
     </row>
     <row r="55" ht="12.75" spans="3:5">
       <c r="C55" s="23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D55" s="23">
         <v>1</v>
@@ -11148,7 +11519,7 @@
     </row>
     <row r="56" ht="12.75" spans="3:5">
       <c r="C56" s="23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D56" s="23">
         <v>1</v>
@@ -11159,7 +11530,7 @@
     </row>
     <row r="57" ht="12.75" spans="3:5">
       <c r="C57" s="23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D57" s="23">
         <v>1</v>
@@ -11170,7 +11541,7 @@
     </row>
     <row r="58" ht="12.75" spans="3:5">
       <c r="C58" s="23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D58" s="23">
         <v>1</v>
@@ -11181,7 +11552,7 @@
     </row>
     <row r="59" ht="12.75" spans="3:5">
       <c r="C59" s="23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D59" s="23">
         <v>1</v>
@@ -11192,7 +11563,7 @@
     </row>
     <row r="60" ht="12.75" spans="3:5">
       <c r="C60" s="23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D60" s="23">
         <v>1</v>
@@ -11203,7 +11574,7 @@
     </row>
     <row r="61" ht="12.75" spans="3:5">
       <c r="C61" s="23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
@@ -11214,7 +11585,7 @@
     </row>
     <row r="62" ht="12.75" spans="3:5">
       <c r="C62" s="23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D62" s="23">
         <v>1</v>
@@ -11225,7 +11596,7 @@
     </row>
     <row r="63" ht="12.75" spans="3:5">
       <c r="C63" s="23" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D63" s="23">
         <v>1</v>
@@ -11236,7 +11607,7 @@
     </row>
     <row r="64" ht="12.75" spans="3:5">
       <c r="C64" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D64" s="23">
         <v>1</v>
@@ -11247,7 +11618,7 @@
     </row>
     <row r="65" ht="12.75" spans="3:5">
       <c r="C65" s="23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D65" s="23">
         <v>1</v>
@@ -11258,7 +11629,7 @@
     </row>
     <row r="66" ht="12.75" spans="3:5">
       <c r="C66" s="23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D66" s="23">
         <v>1</v>
@@ -11269,7 +11640,7 @@
     </row>
     <row r="67" ht="12.75" spans="3:5">
       <c r="C67" s="23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D67" s="23">
         <v>1</v>
@@ -11280,7 +11651,7 @@
     </row>
     <row r="68" ht="12.75" spans="3:5">
       <c r="C68" s="23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D68" s="23">
         <v>1</v>
@@ -11291,7 +11662,7 @@
     </row>
     <row r="69" ht="12.75" spans="3:5">
       <c r="C69" s="23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D69" s="23">
         <v>1</v>
@@ -11302,7 +11673,7 @@
     </row>
     <row r="70" ht="12.75" spans="3:5">
       <c r="C70" s="23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D70" s="23">
         <v>1</v>
@@ -11313,7 +11684,7 @@
     </row>
     <row r="71" ht="12.75" spans="3:5">
       <c r="C71" s="23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D71" s="23">
         <v>1</v>
@@ -11324,7 +11695,7 @@
     </row>
     <row r="72" ht="12.75" spans="3:5">
       <c r="C72" s="23" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D72" s="23">
         <v>1</v>
@@ -11335,12 +11706,12 @@
     </row>
     <row r="73" ht="12.75" spans="2:2">
       <c r="B73" s="27" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" ht="12.75" spans="3:5">
       <c r="C74" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D74" s="23">
         <v>1</v>
@@ -11351,7 +11722,7 @@
     </row>
     <row r="75" ht="12.75" spans="3:5">
       <c r="C75" s="23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D75" s="23">
         <v>1</v>
@@ -11362,7 +11733,7 @@
     </row>
     <row r="76" ht="12.75" spans="3:5">
       <c r="C76" s="23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D76" s="23">
         <v>1</v>
@@ -11373,7 +11744,7 @@
     </row>
     <row r="77" ht="12.75" spans="3:5">
       <c r="C77" s="23" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D77" s="23">
         <v>1</v>
@@ -11384,7 +11755,7 @@
     </row>
     <row r="78" ht="12.75" spans="3:5">
       <c r="C78" s="23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D78" s="23">
         <v>1</v>
@@ -11395,7 +11766,7 @@
     </row>
     <row r="79" ht="12.75" spans="3:5">
       <c r="C79" s="23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D79" s="23">
         <v>1</v>
@@ -11406,7 +11777,7 @@
     </row>
     <row r="80" ht="12.75" spans="3:5">
       <c r="C80" s="23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D80" s="23">
         <v>1</v>
@@ -11417,7 +11788,7 @@
     </row>
     <row r="81" ht="12.75" spans="3:5">
       <c r="C81" s="23" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D81" s="23">
         <v>1</v>
@@ -11428,7 +11799,7 @@
     </row>
     <row r="82" ht="12.75" spans="3:5">
       <c r="C82" s="23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D82" s="23">
         <v>1</v>
@@ -11439,7 +11810,7 @@
     </row>
     <row r="83" ht="12.75" spans="3:5">
       <c r="C83" s="23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D83" s="23">
         <v>1</v>
@@ -11450,7 +11821,7 @@
     </row>
     <row r="84" ht="12.75" spans="3:5">
       <c r="C84" s="23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D84" s="23">
         <v>1</v>
@@ -11461,7 +11832,7 @@
     </row>
     <row r="85" ht="12.75" spans="3:5">
       <c r="C85" s="23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D85" s="23">
         <v>1</v>
@@ -11472,7 +11843,7 @@
     </row>
     <row r="86" ht="12.75" spans="3:5">
       <c r="C86" s="23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D86" s="23">
         <v>1</v>
@@ -11483,7 +11854,7 @@
     </row>
     <row r="87" ht="12.75" spans="3:5">
       <c r="C87" s="23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D87" s="23">
         <v>1</v>
@@ -11494,7 +11865,7 @@
     </row>
     <row r="88" ht="12.75" spans="3:5">
       <c r="C88" s="23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D88" s="23">
         <v>1</v>
@@ -11505,7 +11876,7 @@
     </row>
     <row r="89" ht="12.75" spans="3:5">
       <c r="C89" s="23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D89" s="23">
         <v>1</v>
@@ -11516,7 +11887,7 @@
     </row>
     <row r="90" ht="12.75" spans="3:5">
       <c r="C90" s="23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D90" s="23">
         <v>1</v>
@@ -11527,7 +11898,7 @@
     </row>
     <row r="91" ht="12.75" spans="3:5">
       <c r="C91" s="23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D91" s="23">
         <v>1</v>
@@ -11538,7 +11909,7 @@
     </row>
     <row r="92" ht="12.75" spans="3:5">
       <c r="C92" s="23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D92" s="23">
         <v>1</v>
@@ -11549,7 +11920,7 @@
     </row>
     <row r="93" ht="12.75" spans="3:5">
       <c r="C93" s="23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D93" s="23">
         <v>1</v>
@@ -11560,7 +11931,7 @@
     </row>
     <row r="94" ht="12.75" spans="3:5">
       <c r="C94" s="23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D94" s="23">
         <v>1</v>
@@ -11571,7 +11942,7 @@
     </row>
     <row r="95" ht="12.75" spans="3:5">
       <c r="C95" s="23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D95" s="23">
         <v>1</v>
@@ -11582,7 +11953,7 @@
     </row>
     <row r="96" ht="12.75" spans="3:5">
       <c r="C96" s="23" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D96" s="23">
         <v>1</v>
@@ -11593,7 +11964,7 @@
     </row>
     <row r="97" spans="3:5">
       <c r="C97" s="28" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D97" s="23">
         <v>1</v>
@@ -11604,12 +11975,12 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" ht="12.75" spans="3:5">
       <c r="C99" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D99" s="23">
         <v>1</v>
@@ -11620,7 +11991,7 @@
     </row>
     <row r="100" ht="12.75" spans="3:5">
       <c r="C100" s="23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D100" s="23">
         <v>1</v>
@@ -11631,7 +12002,7 @@
     </row>
     <row r="101" spans="3:5">
       <c r="C101" s="23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D101" s="23">
         <v>1</v>
@@ -11642,7 +12013,7 @@
     </row>
     <row r="102" spans="3:5">
       <c r="C102" s="23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D102" s="23">
         <v>1</v>
@@ -11653,7 +12024,7 @@
     </row>
     <row r="103" spans="3:5">
       <c r="C103" s="23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D103" s="23">
         <v>1</v>
@@ -11664,7 +12035,7 @@
     </row>
     <row r="104" spans="3:5">
       <c r="C104" s="23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D104" s="23">
         <v>1</v>
@@ -11675,7 +12046,7 @@
     </row>
     <row r="105" spans="3:5">
       <c r="C105" s="23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D105" s="23">
         <v>1</v>
@@ -11686,7 +12057,7 @@
     </row>
     <row r="106" spans="3:5">
       <c r="C106" s="23" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D106" s="23">
         <v>1</v>
@@ -11697,7 +12068,7 @@
     </row>
     <row r="107" spans="3:5">
       <c r="C107" s="23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D107" s="23">
         <v>1</v>
@@ -11708,7 +12079,7 @@
     </row>
     <row r="108" spans="3:5">
       <c r="C108" s="30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D108" s="23">
         <v>1</v>
@@ -11719,13 +12090,13 @@
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="29" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D109" s="23"/>
     </row>
     <row r="110" ht="12.75" spans="3:5">
       <c r="C110" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D110" s="23">
         <v>1</v>
@@ -11736,7 +12107,7 @@
     </row>
     <row r="111" ht="12.75" spans="3:5">
       <c r="C111" s="23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D111" s="23">
         <v>1</v>
@@ -11747,7 +12118,7 @@
     </row>
     <row r="112" spans="3:5">
       <c r="C112" s="23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D112" s="23">
         <v>1</v>
@@ -11758,7 +12129,7 @@
     </row>
     <row r="113" spans="3:5">
       <c r="C113" s="23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D113" s="23">
         <v>1</v>
@@ -11769,7 +12140,7 @@
     </row>
     <row r="114" spans="3:5">
       <c r="C114" s="23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D114" s="23">
         <v>1</v>
@@ -11780,7 +12151,7 @@
     </row>
     <row r="115" spans="3:5">
       <c r="C115" s="23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D115" s="23">
         <v>1</v>
@@ -11791,7 +12162,7 @@
     </row>
     <row r="116" spans="3:5">
       <c r="C116" s="23" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D116" s="23">
         <v>1</v>
@@ -11802,7 +12173,7 @@
     </row>
     <row r="117" spans="3:5">
       <c r="C117" s="23" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D117" s="23">
         <v>1</v>
@@ -11813,7 +12184,7 @@
     </row>
     <row r="118" spans="3:5">
       <c r="C118" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D118" s="23">
         <v>1</v>
@@ -11824,7 +12195,7 @@
     </row>
     <row r="119" spans="3:5">
       <c r="C119" s="23" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D119" s="23">
         <v>1</v>
@@ -11835,7 +12206,7 @@
     </row>
     <row r="120" spans="3:5">
       <c r="C120" s="23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D120" s="23">
         <v>1</v>
@@ -11846,7 +12217,7 @@
     </row>
     <row r="121" spans="3:5">
       <c r="C121" s="23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D121" s="23">
         <v>1</v>
@@ -11857,7 +12228,7 @@
     </row>
     <row r="122" spans="3:5">
       <c r="C122" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D122" s="23">
         <v>1</v>
@@ -11868,7 +12239,7 @@
     </row>
     <row r="123" spans="3:5">
       <c r="C123" s="23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D123" s="23">
         <v>1</v>
@@ -11879,7 +12250,7 @@
     </row>
     <row r="124" spans="3:5">
       <c r="C124" s="30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D124" s="23">
         <v>1</v>
@@ -11888,14 +12259,14 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="125" ht="12.75" spans="2:2">
-      <c r="B125" s="23" t="s">
-        <v>119</v>
+    <row r="125" spans="2:2">
+      <c r="B125" s="29" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="126" ht="12.75" spans="3:5">
       <c r="C126" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D126" s="23">
         <v>1</v>
@@ -11906,7 +12277,7 @@
     </row>
     <row r="127" ht="12.75" spans="3:5">
       <c r="C127" s="23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D127" s="23">
         <v>1</v>
@@ -11917,7 +12288,7 @@
     </row>
     <row r="128" spans="3:5">
       <c r="C128" s="23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D128" s="23">
         <v>1</v>
@@ -11928,7 +12299,7 @@
     </row>
     <row r="129" spans="3:5">
       <c r="C129" s="23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D129" s="23">
         <v>1</v>
@@ -11939,7 +12310,7 @@
     </row>
     <row r="130" spans="3:5">
       <c r="C130" s="23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D130" s="23">
         <v>1</v>
@@ -11950,7 +12321,7 @@
     </row>
     <row r="131" spans="3:5">
       <c r="C131" s="23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D131" s="23">
         <v>1</v>
@@ -11961,7 +12332,7 @@
     </row>
     <row r="132" spans="3:5">
       <c r="C132" s="23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D132" s="23">
         <v>1</v>
@@ -11971,8 +12342,8 @@
       </c>
     </row>
     <row r="133" spans="3:5">
-      <c r="C133" s="23" t="s">
-        <v>125</v>
+      <c r="C133" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="D133" s="23">
         <v>1</v>
@@ -11983,7 +12354,7 @@
     </row>
     <row r="135" ht="12.75" spans="3:7">
       <c r="C135" s="23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D135" s="31">
         <f t="shared" ref="D135" si="0">SUM(D2:D133)</f>
@@ -12014,8 +12385,8 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -12029,19 +12400,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12049,13 +12420,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12063,13 +12434,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12077,13 +12448,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12091,13 +12462,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12105,13 +12476,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" ht="37.5" spans="1:4">
@@ -12119,13 +12490,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12133,13 +12504,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12147,13 +12518,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12161,13 +12532,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12175,13 +12546,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" ht="37.5" spans="1:4">
@@ -12189,13 +12560,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12203,13 +12574,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" ht="37.5" spans="1:4">
@@ -12217,13 +12588,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12231,13 +12602,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" ht="24.75" spans="1:4">
@@ -12245,13 +12616,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12259,13 +12630,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:5">
@@ -12273,16 +12644,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12290,13 +12661,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:4">
@@ -12304,19 +12675,19 @@
         <v>4</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" ht="24.75" spans="1:4">
@@ -12324,13 +12695,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" ht="24.75" spans="1:4">
@@ -12338,13 +12709,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" ht="50.25" spans="1:4">
@@ -12352,13 +12723,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12366,13 +12737,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="1:4">
@@ -12380,33 +12751,33 @@
         <v>4</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -12415,13 +12786,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" ht="24.75" spans="1:4">
@@ -12429,13 +12800,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" ht="24.75" spans="1:4">
@@ -12443,13 +12814,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -12457,13 +12828,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -12471,13 +12842,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:4">
@@ -12485,31 +12856,31 @@
         <v>4</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="21"/>
       <c r="C36" s="10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="21"/>
       <c r="C37" s="10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" ht="36.75" spans="1:4">
@@ -12517,13 +12888,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
